--- a/PRD Task management.xlsx
+++ b/PRD Task management.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\task-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5227EA-5120-479C-8677-22FD90EDAE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670AC274-C66D-4134-877A-3963C19B2FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRD" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Product Requirement Document (PRD) - Version: 1.0</t>
   </si>
@@ -183,7 +183,28 @@
 Data displayed is role-specific (e.g., Managers see only their team’s tasks).</t>
   </si>
   <si>
-    <t>=G14s</t>
+    <t>SideMenu[Manager]</t>
+  </si>
+  <si>
+    <t>go to dashboard page on click
+go to project page on click
+go to track page on click
+go to subtasks page on click
+go to settings page on click</t>
+  </si>
+  <si>
+    <t>Dashboards (link)
+Project (link)
+Track (link)
+Subtasks (link)
+Settings (link)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboards 
+Project 
+Track 
+Subtasks 
+Settings </t>
   </si>
 </sst>
 </file>
@@ -700,6 +721,12 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -708,16 +735,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -726,21 +762,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -762,23 +783,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3744685</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>317046</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2577817" cy="2601686"/>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4430245</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22371</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF29CE84-2294-4F88-AF98-46A012C3C40E}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EC6CAC4F-CB21-EC17-FE22-90DB12AFE02E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBFA2575-E2DF-4608-813A-934306839769}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -794,8 +817,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14098360" y="21643521"/>
-          <a:ext cx="2577817" cy="2601686"/>
+          <a:off x="14173200" y="5686425"/>
+          <a:ext cx="4430245" cy="3270396"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -803,26 +826,26 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>44825</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>201706</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4415118</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>3148852</xdr:rowOff>
+      <xdr:colOff>2200582</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C807CBDE-5169-541B-E37B-B2DAF8E37D4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{496935A4-C1CB-4D03-09E9-32E72DC29B45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -838,8 +861,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14220266" y="5961530"/>
-          <a:ext cx="4370293" cy="2947146"/>
+          <a:off x="14173200" y="8953500"/>
+          <a:ext cx="2200582" cy="3590925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1052,10 +1075,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y931"/>
+  <dimension ref="A1:Y930"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1073,15 +1096,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="63"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1129,15 +1152,15 @@
       <c r="Y2" s="3"/>
     </row>
     <row r="3" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="61" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="29"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
@@ -1160,15 +1183,15 @@
       <c r="Y3" s="3"/>
     </row>
     <row r="4" spans="1:25" ht="152.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="63" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="52"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
@@ -1191,13 +1214,13 @@
       <c r="Y4" s="3"/>
     </row>
     <row r="5" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="29"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
@@ -1220,15 +1243,15 @@
       <c r="Y5" s="12"/>
     </row>
     <row r="6" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="61" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="29"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
@@ -1251,15 +1274,15 @@
       <c r="Y6" s="12"/>
     </row>
     <row r="7" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="61" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="29"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
@@ -1282,15 +1305,15 @@
       <c r="Y7" s="12"/>
     </row>
     <row r="8" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="64" t="s">
+      <c r="B8" s="63"/>
+      <c r="C8" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="29"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
@@ -1313,15 +1336,15 @@
       <c r="Y8" s="12"/>
     </row>
     <row r="9" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="61" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="29"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -1441,18 +1464,18 @@
       <c r="Y12" s="20"/>
     </row>
     <row r="13" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67" t="s">
+      <c r="B13" s="54"/>
+      <c r="C13" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="69"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="61"/>
       <c r="I13" s="21"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -1519,10 +1542,18 @@
       <c r="B15" s="40">
         <v>5</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
+      <c r="C15" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="G15" s="32"/>
       <c r="H15" s="38"/>
       <c r="I15" s="23"/>
@@ -1543,79 +1574,72 @@
       <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
     </row>
-    <row r="16" spans="1:25" ht="213" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
-        <v>18</v>
+    <row r="16" spans="1:25" ht="198.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="39" t="s">
+        <v>21</v>
       </c>
       <c r="B16" s="40">
-        <v>6</v>
+        <v>29</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
+      <c r="C16" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="F16" s="37" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
-      <c r="G16" s="38"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="38"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="20"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
       <c r="O16" s="20"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
     </row>
-    <row r="17" spans="1:25" ht="198.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="40">
-        <v>29</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-    </row>
-    <row r="18" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+    </row>
+    <row r="18" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="26"/>
@@ -1641,7 +1665,7 @@
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
     </row>
-    <row r="19" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="26"/>
@@ -1667,7 +1691,7 @@
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
     </row>
-    <row r="20" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="26"/>
@@ -1693,7 +1717,7 @@
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
     </row>
-    <row r="21" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="26"/>
@@ -1719,7 +1743,7 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
     </row>
-    <row r="22" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="26"/>
@@ -1745,7 +1769,7 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
     </row>
-    <row r="23" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="26"/>
@@ -1771,7 +1795,7 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="26"/>
@@ -1797,7 +1821,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
     </row>
-    <row r="25" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="26"/>
@@ -1823,7 +1847,7 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
     </row>
-    <row r="26" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="26"/>
@@ -1849,7 +1873,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
     </row>
-    <row r="27" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="26"/>
@@ -1875,7 +1899,7 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
     </row>
-    <row r="28" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="26"/>
@@ -1901,7 +1925,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="26"/>
@@ -1927,7 +1951,7 @@
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
     </row>
-    <row r="30" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="26"/>
@@ -1953,7 +1977,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="26"/>
@@ -1979,7 +2003,7 @@
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
     </row>
-    <row r="32" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="26"/>
@@ -2421,7 +2445,7 @@
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
     </row>
-    <row r="49" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="26"/>
@@ -2447,7 +2471,7 @@
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
     </row>
-    <row r="50" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="26"/>
@@ -2473,7 +2497,7 @@
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
     </row>
-    <row r="51" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="26"/>
@@ -2499,7 +2523,7 @@
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
     </row>
-    <row r="52" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="26"/>
@@ -2525,7 +2549,7 @@
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
     </row>
-    <row r="53" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="26"/>
@@ -2551,7 +2575,7 @@
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
     </row>
-    <row r="54" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="26"/>
@@ -2577,7 +2601,7 @@
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
     </row>
-    <row r="55" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="26"/>
@@ -2603,7 +2627,7 @@
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
     </row>
-    <row r="56" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="26"/>
@@ -2629,7 +2653,7 @@
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
     </row>
-    <row r="57" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="26"/>
@@ -2655,7 +2679,7 @@
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
     </row>
-    <row r="58" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="26"/>
@@ -2681,7 +2705,7 @@
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
     </row>
-    <row r="59" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="26"/>
@@ -2707,7 +2731,7 @@
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
     </row>
-    <row r="60" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="26"/>
@@ -2733,7 +2757,7 @@
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
     </row>
-    <row r="61" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="26"/>
@@ -2759,7 +2783,7 @@
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
     </row>
-    <row r="62" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="26"/>
@@ -2785,7 +2809,7 @@
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
     </row>
-    <row r="63" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="26"/>
@@ -2811,52 +2835,53 @@
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
     </row>
-    <row r="64" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="9"/>
-      <c r="S64" s="11"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="55"/>
+      <c r="N64" s="56"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="55"/>
+      <c r="Q64" s="56"/>
+      <c r="R64" s="56"/>
+      <c r="S64" s="57"/>
       <c r="T64" s="11"/>
       <c r="U64" s="11"/>
       <c r="V64" s="11"/>
-      <c r="W64" s="9"/>
-      <c r="X64" s="9"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="12"/>
     </row>
     <row r="65" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="55"/>
-      <c r="M65" s="53"/>
-      <c r="N65" s="54"/>
-      <c r="O65" s="55"/>
-      <c r="P65" s="53"/>
-      <c r="Q65" s="54"/>
-      <c r="R65" s="54"/>
-      <c r="S65" s="55"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="56"/>
+      <c r="K65" s="56"/>
+      <c r="L65" s="57"/>
+      <c r="M65" s="55"/>
+      <c r="N65" s="56"/>
+      <c r="O65" s="57"/>
+      <c r="P65" s="55"/>
+      <c r="Q65" s="56"/>
+      <c r="R65" s="56"/>
+      <c r="S65" s="57"/>
       <c r="T65" s="11"/>
       <c r="U65" s="11"/>
       <c r="V65" s="11"/>
@@ -2867,23 +2892,23 @@
     <row r="66" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="54"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="55"/>
-      <c r="M66" s="53"/>
-      <c r="N66" s="54"/>
-      <c r="O66" s="55"/>
-      <c r="P66" s="53"/>
-      <c r="Q66" s="54"/>
-      <c r="R66" s="54"/>
-      <c r="S66" s="55"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="57"/>
+      <c r="M66" s="55"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="57"/>
+      <c r="P66" s="55"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="56"/>
+      <c r="S66" s="57"/>
       <c r="T66" s="11"/>
       <c r="U66" s="11"/>
       <c r="V66" s="11"/>
@@ -2894,23 +2919,23 @@
     <row r="67" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="55"/>
-      <c r="M67" s="53"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="55"/>
-      <c r="P67" s="53"/>
-      <c r="Q67" s="54"/>
-      <c r="R67" s="54"/>
-      <c r="S67" s="55"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="57"/>
+      <c r="M67" s="55"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="57"/>
+      <c r="P67" s="55"/>
+      <c r="Q67" s="56"/>
+      <c r="R67" s="56"/>
+      <c r="S67" s="57"/>
       <c r="T67" s="11"/>
       <c r="U67" s="11"/>
       <c r="V67" s="11"/>
@@ -2921,23 +2946,23 @@
     <row r="68" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="55"/>
-      <c r="M68" s="53"/>
-      <c r="N68" s="54"/>
-      <c r="O68" s="55"/>
-      <c r="P68" s="53"/>
-      <c r="Q68" s="54"/>
-      <c r="R68" s="54"/>
-      <c r="S68" s="55"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="55"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="56"/>
+      <c r="L68" s="57"/>
+      <c r="M68" s="55"/>
+      <c r="N68" s="56"/>
+      <c r="O68" s="57"/>
+      <c r="P68" s="55"/>
+      <c r="Q68" s="56"/>
+      <c r="R68" s="56"/>
+      <c r="S68" s="57"/>
       <c r="T68" s="11"/>
       <c r="U68" s="11"/>
       <c r="V68" s="11"/>
@@ -2948,23 +2973,23 @@
     <row r="69" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="55"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="55"/>
-      <c r="M69" s="53"/>
-      <c r="N69" s="54"/>
-      <c r="O69" s="55"/>
-      <c r="P69" s="53"/>
-      <c r="Q69" s="54"/>
-      <c r="R69" s="54"/>
-      <c r="S69" s="55"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="55"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
+      <c r="L69" s="57"/>
+      <c r="M69" s="55"/>
+      <c r="N69" s="56"/>
+      <c r="O69" s="57"/>
+      <c r="P69" s="55"/>
+      <c r="Q69" s="56"/>
+      <c r="R69" s="56"/>
+      <c r="S69" s="57"/>
       <c r="T69" s="11"/>
       <c r="U69" s="11"/>
       <c r="V69" s="11"/>
@@ -2975,23 +3000,23 @@
     <row r="70" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="54"/>
-      <c r="K70" s="54"/>
-      <c r="L70" s="55"/>
-      <c r="M70" s="53"/>
-      <c r="N70" s="54"/>
-      <c r="O70" s="55"/>
-      <c r="P70" s="53"/>
-      <c r="Q70" s="54"/>
-      <c r="R70" s="54"/>
-      <c r="S70" s="55"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="55"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="57"/>
+      <c r="M70" s="55"/>
+      <c r="N70" s="56"/>
+      <c r="O70" s="57"/>
+      <c r="P70" s="55"/>
+      <c r="Q70" s="56"/>
+      <c r="R70" s="56"/>
+      <c r="S70" s="57"/>
       <c r="T70" s="11"/>
       <c r="U70" s="11"/>
       <c r="V70" s="11"/>
@@ -3002,23 +3027,23 @@
     <row r="71" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="54"/>
-      <c r="H71" s="55"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="54"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="55"/>
-      <c r="M71" s="53"/>
-      <c r="N71" s="54"/>
-      <c r="O71" s="55"/>
-      <c r="P71" s="53"/>
-      <c r="Q71" s="54"/>
-      <c r="R71" s="54"/>
-      <c r="S71" s="55"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="55"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="56"/>
+      <c r="L71" s="57"/>
+      <c r="M71" s="55"/>
+      <c r="N71" s="56"/>
+      <c r="O71" s="57"/>
+      <c r="P71" s="55"/>
+      <c r="Q71" s="56"/>
+      <c r="R71" s="56"/>
+      <c r="S71" s="57"/>
       <c r="T71" s="11"/>
       <c r="U71" s="11"/>
       <c r="V71" s="11"/>
@@ -3029,23 +3054,23 @@
     <row r="72" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="55"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="54"/>
-      <c r="L72" s="55"/>
-      <c r="M72" s="53"/>
-      <c r="N72" s="54"/>
-      <c r="O72" s="55"/>
-      <c r="P72" s="53"/>
-      <c r="Q72" s="54"/>
-      <c r="R72" s="54"/>
-      <c r="S72" s="55"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="55"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="56"/>
+      <c r="L72" s="57"/>
+      <c r="M72" s="55"/>
+      <c r="N72" s="56"/>
+      <c r="O72" s="57"/>
+      <c r="P72" s="55"/>
+      <c r="Q72" s="56"/>
+      <c r="R72" s="56"/>
+      <c r="S72" s="57"/>
       <c r="T72" s="11"/>
       <c r="U72" s="11"/>
       <c r="V72" s="11"/>
@@ -3056,23 +3081,23 @@
     <row r="73" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="53"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="53"/>
-      <c r="J73" s="54"/>
-      <c r="K73" s="54"/>
-      <c r="L73" s="55"/>
-      <c r="M73" s="53"/>
-      <c r="N73" s="54"/>
-      <c r="O73" s="55"/>
-      <c r="P73" s="53"/>
-      <c r="Q73" s="54"/>
-      <c r="R73" s="54"/>
-      <c r="S73" s="55"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="55"/>
+      <c r="J73" s="56"/>
+      <c r="K73" s="56"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="55"/>
+      <c r="N73" s="56"/>
+      <c r="O73" s="57"/>
+      <c r="P73" s="55"/>
+      <c r="Q73" s="56"/>
+      <c r="R73" s="56"/>
+      <c r="S73" s="57"/>
       <c r="T73" s="11"/>
       <c r="U73" s="11"/>
       <c r="V73" s="11"/>
@@ -3083,23 +3108,23 @@
     <row r="74" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="54"/>
-      <c r="L74" s="55"/>
-      <c r="M74" s="53"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="55"/>
-      <c r="P74" s="53"/>
-      <c r="Q74" s="54"/>
-      <c r="R74" s="54"/>
-      <c r="S74" s="55"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="55"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="56"/>
+      <c r="L74" s="57"/>
+      <c r="M74" s="55"/>
+      <c r="N74" s="56"/>
+      <c r="O74" s="57"/>
+      <c r="P74" s="55"/>
+      <c r="Q74" s="56"/>
+      <c r="R74" s="56"/>
+      <c r="S74" s="57"/>
       <c r="T74" s="11"/>
       <c r="U74" s="11"/>
       <c r="V74" s="11"/>
@@ -3110,23 +3135,23 @@
     <row r="75" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="53"/>
-      <c r="J75" s="54"/>
-      <c r="K75" s="54"/>
-      <c r="L75" s="55"/>
-      <c r="M75" s="53"/>
-      <c r="N75" s="54"/>
-      <c r="O75" s="55"/>
-      <c r="P75" s="53"/>
-      <c r="Q75" s="54"/>
-      <c r="R75" s="54"/>
-      <c r="S75" s="55"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="55"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="56"/>
+      <c r="L75" s="57"/>
+      <c r="M75" s="55"/>
+      <c r="N75" s="56"/>
+      <c r="O75" s="57"/>
+      <c r="P75" s="55"/>
+      <c r="Q75" s="56"/>
+      <c r="R75" s="56"/>
+      <c r="S75" s="57"/>
       <c r="T75" s="11"/>
       <c r="U75" s="11"/>
       <c r="V75" s="11"/>
@@ -3137,23 +3162,23 @@
     <row r="76" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="56"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="54"/>
-      <c r="L76" s="55"/>
-      <c r="M76" s="53"/>
-      <c r="N76" s="54"/>
-      <c r="O76" s="55"/>
-      <c r="P76" s="53"/>
-      <c r="Q76" s="54"/>
-      <c r="R76" s="54"/>
-      <c r="S76" s="55"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="55"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="57"/>
+      <c r="M76" s="55"/>
+      <c r="N76" s="56"/>
+      <c r="O76" s="57"/>
+      <c r="P76" s="55"/>
+      <c r="Q76" s="56"/>
+      <c r="R76" s="56"/>
+      <c r="S76" s="57"/>
       <c r="T76" s="11"/>
       <c r="U76" s="11"/>
       <c r="V76" s="11"/>
@@ -3164,23 +3189,23 @@
     <row r="77" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
-      <c r="C77" s="56"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="53"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="55"/>
-      <c r="M77" s="53"/>
-      <c r="N77" s="54"/>
-      <c r="O77" s="55"/>
-      <c r="P77" s="53"/>
-      <c r="Q77" s="54"/>
-      <c r="R77" s="54"/>
-      <c r="S77" s="55"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="55"/>
+      <c r="J77" s="56"/>
+      <c r="K77" s="56"/>
+      <c r="L77" s="57"/>
+      <c r="M77" s="55"/>
+      <c r="N77" s="56"/>
+      <c r="O77" s="57"/>
+      <c r="P77" s="55"/>
+      <c r="Q77" s="56"/>
+      <c r="R77" s="56"/>
+      <c r="S77" s="57"/>
       <c r="T77" s="11"/>
       <c r="U77" s="11"/>
       <c r="V77" s="11"/>
@@ -3191,23 +3216,23 @@
     <row r="78" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="54"/>
-      <c r="L78" s="55"/>
-      <c r="M78" s="53"/>
-      <c r="N78" s="54"/>
-      <c r="O78" s="55"/>
-      <c r="P78" s="53"/>
-      <c r="Q78" s="54"/>
-      <c r="R78" s="54"/>
-      <c r="S78" s="55"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="55"/>
+      <c r="J78" s="56"/>
+      <c r="K78" s="56"/>
+      <c r="L78" s="57"/>
+      <c r="M78" s="55"/>
+      <c r="N78" s="56"/>
+      <c r="O78" s="57"/>
+      <c r="P78" s="55"/>
+      <c r="Q78" s="56"/>
+      <c r="R78" s="56"/>
+      <c r="S78" s="57"/>
       <c r="T78" s="11"/>
       <c r="U78" s="11"/>
       <c r="V78" s="11"/>
@@ -3218,23 +3243,23 @@
     <row r="79" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="56"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="54"/>
-      <c r="H79" s="55"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="54"/>
-      <c r="L79" s="55"/>
-      <c r="M79" s="53"/>
-      <c r="N79" s="54"/>
-      <c r="O79" s="55"/>
-      <c r="P79" s="53"/>
-      <c r="Q79" s="54"/>
-      <c r="R79" s="54"/>
-      <c r="S79" s="55"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="55"/>
+      <c r="J79" s="56"/>
+      <c r="K79" s="56"/>
+      <c r="L79" s="57"/>
+      <c r="M79" s="55"/>
+      <c r="N79" s="56"/>
+      <c r="O79" s="57"/>
+      <c r="P79" s="55"/>
+      <c r="Q79" s="56"/>
+      <c r="R79" s="56"/>
+      <c r="S79" s="57"/>
       <c r="T79" s="11"/>
       <c r="U79" s="11"/>
       <c r="V79" s="11"/>
@@ -3245,23 +3270,23 @@
     <row r="80" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="55"/>
-      <c r="M80" s="53"/>
-      <c r="N80" s="54"/>
-      <c r="O80" s="55"/>
-      <c r="P80" s="53"/>
-      <c r="Q80" s="54"/>
-      <c r="R80" s="54"/>
-      <c r="S80" s="55"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="57"/>
+      <c r="M80" s="55"/>
+      <c r="N80" s="56"/>
+      <c r="O80" s="57"/>
+      <c r="P80" s="55"/>
+      <c r="Q80" s="56"/>
+      <c r="R80" s="56"/>
+      <c r="S80" s="57"/>
       <c r="T80" s="11"/>
       <c r="U80" s="11"/>
       <c r="V80" s="11"/>
@@ -3272,23 +3297,23 @@
     <row r="81" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="54"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="54"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="54"/>
-      <c r="K81" s="54"/>
-      <c r="L81" s="55"/>
-      <c r="M81" s="53"/>
-      <c r="N81" s="54"/>
-      <c r="O81" s="55"/>
-      <c r="P81" s="53"/>
-      <c r="Q81" s="54"/>
-      <c r="R81" s="54"/>
-      <c r="S81" s="55"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="56"/>
+      <c r="K81" s="56"/>
+      <c r="L81" s="57"/>
+      <c r="M81" s="55"/>
+      <c r="N81" s="56"/>
+      <c r="O81" s="57"/>
+      <c r="P81" s="55"/>
+      <c r="Q81" s="56"/>
+      <c r="R81" s="56"/>
+      <c r="S81" s="57"/>
       <c r="T81" s="11"/>
       <c r="U81" s="11"/>
       <c r="V81" s="11"/>
@@ -3299,23 +3324,23 @@
     <row r="82" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="54"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="53"/>
-      <c r="G82" s="54"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="54"/>
-      <c r="K82" s="54"/>
-      <c r="L82" s="55"/>
-      <c r="M82" s="53"/>
-      <c r="N82" s="54"/>
-      <c r="O82" s="55"/>
-      <c r="P82" s="53"/>
-      <c r="Q82" s="54"/>
-      <c r="R82" s="54"/>
-      <c r="S82" s="55"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="56"/>
+      <c r="L82" s="57"/>
+      <c r="M82" s="55"/>
+      <c r="N82" s="56"/>
+      <c r="O82" s="57"/>
+      <c r="P82" s="55"/>
+      <c r="Q82" s="56"/>
+      <c r="R82" s="56"/>
+      <c r="S82" s="57"/>
       <c r="T82" s="11"/>
       <c r="U82" s="11"/>
       <c r="V82" s="11"/>
@@ -3326,23 +3351,23 @@
     <row r="83" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="53"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="53"/>
-      <c r="J83" s="54"/>
-      <c r="K83" s="54"/>
-      <c r="L83" s="55"/>
-      <c r="M83" s="53"/>
-      <c r="N83" s="54"/>
-      <c r="O83" s="55"/>
-      <c r="P83" s="53"/>
-      <c r="Q83" s="54"/>
-      <c r="R83" s="54"/>
-      <c r="S83" s="55"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="55"/>
+      <c r="J83" s="56"/>
+      <c r="K83" s="56"/>
+      <c r="L83" s="57"/>
+      <c r="M83" s="55"/>
+      <c r="N83" s="56"/>
+      <c r="O83" s="57"/>
+      <c r="P83" s="55"/>
+      <c r="Q83" s="56"/>
+      <c r="R83" s="56"/>
+      <c r="S83" s="57"/>
       <c r="T83" s="11"/>
       <c r="U83" s="11"/>
       <c r="V83" s="11"/>
@@ -3353,23 +3378,23 @@
     <row r="84" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="53"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="54"/>
-      <c r="K84" s="54"/>
-      <c r="L84" s="55"/>
-      <c r="M84" s="53"/>
-      <c r="N84" s="54"/>
-      <c r="O84" s="55"/>
-      <c r="P84" s="53"/>
-      <c r="Q84" s="54"/>
-      <c r="R84" s="54"/>
-      <c r="S84" s="55"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="55"/>
+      <c r="J84" s="56"/>
+      <c r="K84" s="56"/>
+      <c r="L84" s="57"/>
+      <c r="M84" s="55"/>
+      <c r="N84" s="56"/>
+      <c r="O84" s="57"/>
+      <c r="P84" s="55"/>
+      <c r="Q84" s="56"/>
+      <c r="R84" s="56"/>
+      <c r="S84" s="57"/>
       <c r="T84" s="11"/>
       <c r="U84" s="11"/>
       <c r="V84" s="11"/>
@@ -3380,23 +3405,23 @@
     <row r="85" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="56"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="53"/>
-      <c r="G85" s="54"/>
-      <c r="H85" s="55"/>
-      <c r="I85" s="53"/>
-      <c r="J85" s="54"/>
-      <c r="K85" s="54"/>
-      <c r="L85" s="55"/>
-      <c r="M85" s="53"/>
-      <c r="N85" s="54"/>
-      <c r="O85" s="55"/>
-      <c r="P85" s="53"/>
-      <c r="Q85" s="54"/>
-      <c r="R85" s="54"/>
-      <c r="S85" s="55"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="56"/>
+      <c r="K85" s="56"/>
+      <c r="L85" s="57"/>
+      <c r="M85" s="55"/>
+      <c r="N85" s="56"/>
+      <c r="O85" s="57"/>
+      <c r="P85" s="55"/>
+      <c r="Q85" s="56"/>
+      <c r="R85" s="56"/>
+      <c r="S85" s="57"/>
       <c r="T85" s="11"/>
       <c r="U85" s="11"/>
       <c r="V85" s="11"/>
@@ -3407,23 +3432,23 @@
     <row r="86" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="53"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="54"/>
-      <c r="K86" s="54"/>
-      <c r="L86" s="55"/>
-      <c r="M86" s="53"/>
-      <c r="N86" s="54"/>
-      <c r="O86" s="55"/>
-      <c r="P86" s="53"/>
-      <c r="Q86" s="54"/>
-      <c r="R86" s="54"/>
-      <c r="S86" s="55"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="55"/>
+      <c r="J86" s="56"/>
+      <c r="K86" s="56"/>
+      <c r="L86" s="57"/>
+      <c r="M86" s="55"/>
+      <c r="N86" s="56"/>
+      <c r="O86" s="57"/>
+      <c r="P86" s="55"/>
+      <c r="Q86" s="56"/>
+      <c r="R86" s="56"/>
+      <c r="S86" s="57"/>
       <c r="T86" s="11"/>
       <c r="U86" s="11"/>
       <c r="V86" s="11"/>
@@ -3434,23 +3459,23 @@
     <row r="87" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="56"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="53"/>
-      <c r="G87" s="54"/>
-      <c r="H87" s="55"/>
-      <c r="I87" s="53"/>
-      <c r="J87" s="54"/>
-      <c r="K87" s="54"/>
-      <c r="L87" s="55"/>
-      <c r="M87" s="53"/>
-      <c r="N87" s="54"/>
-      <c r="O87" s="55"/>
-      <c r="P87" s="53"/>
-      <c r="Q87" s="54"/>
-      <c r="R87" s="54"/>
-      <c r="S87" s="55"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="55"/>
+      <c r="J87" s="56"/>
+      <c r="K87" s="56"/>
+      <c r="L87" s="57"/>
+      <c r="M87" s="55"/>
+      <c r="N87" s="56"/>
+      <c r="O87" s="57"/>
+      <c r="P87" s="55"/>
+      <c r="Q87" s="56"/>
+      <c r="R87" s="56"/>
+      <c r="S87" s="57"/>
       <c r="T87" s="11"/>
       <c r="U87" s="11"/>
       <c r="V87" s="11"/>
@@ -3461,23 +3486,23 @@
     <row r="88" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="56"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="53"/>
-      <c r="G88" s="54"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="54"/>
-      <c r="K88" s="54"/>
-      <c r="L88" s="55"/>
-      <c r="M88" s="53"/>
-      <c r="N88" s="54"/>
-      <c r="O88" s="55"/>
-      <c r="P88" s="53"/>
-      <c r="Q88" s="54"/>
-      <c r="R88" s="54"/>
-      <c r="S88" s="55"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="55"/>
+      <c r="J88" s="56"/>
+      <c r="K88" s="56"/>
+      <c r="L88" s="57"/>
+      <c r="M88" s="55"/>
+      <c r="N88" s="56"/>
+      <c r="O88" s="57"/>
+      <c r="P88" s="55"/>
+      <c r="Q88" s="56"/>
+      <c r="R88" s="56"/>
+      <c r="S88" s="57"/>
       <c r="T88" s="11"/>
       <c r="U88" s="11"/>
       <c r="V88" s="11"/>
@@ -3488,23 +3513,23 @@
     <row r="89" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="54"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="53"/>
-      <c r="G89" s="54"/>
-      <c r="H89" s="55"/>
-      <c r="I89" s="53"/>
-      <c r="J89" s="54"/>
-      <c r="K89" s="54"/>
-      <c r="L89" s="55"/>
-      <c r="M89" s="53"/>
-      <c r="N89" s="54"/>
-      <c r="O89" s="55"/>
-      <c r="P89" s="53"/>
-      <c r="Q89" s="54"/>
-      <c r="R89" s="54"/>
-      <c r="S89" s="55"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="56"/>
+      <c r="H89" s="57"/>
+      <c r="I89" s="55"/>
+      <c r="J89" s="56"/>
+      <c r="K89" s="56"/>
+      <c r="L89" s="57"/>
+      <c r="M89" s="55"/>
+      <c r="N89" s="56"/>
+      <c r="O89" s="57"/>
+      <c r="P89" s="55"/>
+      <c r="Q89" s="56"/>
+      <c r="R89" s="56"/>
+      <c r="S89" s="57"/>
       <c r="T89" s="11"/>
       <c r="U89" s="11"/>
       <c r="V89" s="11"/>
@@ -3515,23 +3540,23 @@
     <row r="90" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="53"/>
-      <c r="G90" s="54"/>
-      <c r="H90" s="55"/>
-      <c r="I90" s="53"/>
-      <c r="J90" s="54"/>
-      <c r="K90" s="54"/>
-      <c r="L90" s="55"/>
-      <c r="M90" s="53"/>
-      <c r="N90" s="54"/>
-      <c r="O90" s="55"/>
-      <c r="P90" s="53"/>
-      <c r="Q90" s="54"/>
-      <c r="R90" s="54"/>
-      <c r="S90" s="55"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="57"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="57"/>
+      <c r="I90" s="55"/>
+      <c r="J90" s="56"/>
+      <c r="K90" s="56"/>
+      <c r="L90" s="57"/>
+      <c r="M90" s="55"/>
+      <c r="N90" s="56"/>
+      <c r="O90" s="57"/>
+      <c r="P90" s="55"/>
+      <c r="Q90" s="56"/>
+      <c r="R90" s="56"/>
+      <c r="S90" s="57"/>
       <c r="T90" s="11"/>
       <c r="U90" s="11"/>
       <c r="V90" s="11"/>
@@ -3542,23 +3567,23 @@
     <row r="91" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="56"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="53"/>
-      <c r="G91" s="54"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="53"/>
-      <c r="J91" s="54"/>
-      <c r="K91" s="54"/>
-      <c r="L91" s="55"/>
-      <c r="M91" s="53"/>
-      <c r="N91" s="54"/>
-      <c r="O91" s="55"/>
-      <c r="P91" s="53"/>
-      <c r="Q91" s="54"/>
-      <c r="R91" s="54"/>
-      <c r="S91" s="55"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="57"/>
+      <c r="I91" s="55"/>
+      <c r="J91" s="56"/>
+      <c r="K91" s="56"/>
+      <c r="L91" s="57"/>
+      <c r="M91" s="55"/>
+      <c r="N91" s="56"/>
+      <c r="O91" s="57"/>
+      <c r="P91" s="55"/>
+      <c r="Q91" s="56"/>
+      <c r="R91" s="56"/>
+      <c r="S91" s="57"/>
       <c r="T91" s="11"/>
       <c r="U91" s="11"/>
       <c r="V91" s="11"/>
@@ -3569,23 +3594,23 @@
     <row r="92" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="56"/>
-      <c r="D92" s="54"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="53"/>
-      <c r="G92" s="54"/>
-      <c r="H92" s="55"/>
-      <c r="I92" s="53"/>
-      <c r="J92" s="54"/>
-      <c r="K92" s="54"/>
-      <c r="L92" s="55"/>
-      <c r="M92" s="53"/>
-      <c r="N92" s="54"/>
-      <c r="O92" s="55"/>
-      <c r="P92" s="53"/>
-      <c r="Q92" s="54"/>
-      <c r="R92" s="54"/>
-      <c r="S92" s="55"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="57"/>
+      <c r="F92" s="55"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="57"/>
+      <c r="I92" s="55"/>
+      <c r="J92" s="56"/>
+      <c r="K92" s="56"/>
+      <c r="L92" s="57"/>
+      <c r="M92" s="55"/>
+      <c r="N92" s="56"/>
+      <c r="O92" s="57"/>
+      <c r="P92" s="55"/>
+      <c r="Q92" s="56"/>
+      <c r="R92" s="56"/>
+      <c r="S92" s="57"/>
       <c r="T92" s="11"/>
       <c r="U92" s="11"/>
       <c r="V92" s="11"/>
@@ -3596,23 +3621,23 @@
     <row r="93" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
-      <c r="C93" s="56"/>
-      <c r="D93" s="54"/>
-      <c r="E93" s="55"/>
-      <c r="F93" s="53"/>
-      <c r="G93" s="54"/>
-      <c r="H93" s="55"/>
-      <c r="I93" s="53"/>
-      <c r="J93" s="54"/>
-      <c r="K93" s="54"/>
-      <c r="L93" s="55"/>
-      <c r="M93" s="53"/>
-      <c r="N93" s="54"/>
-      <c r="O93" s="55"/>
-      <c r="P93" s="53"/>
-      <c r="Q93" s="54"/>
-      <c r="R93" s="54"/>
-      <c r="S93" s="55"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="57"/>
+      <c r="I93" s="55"/>
+      <c r="J93" s="56"/>
+      <c r="K93" s="56"/>
+      <c r="L93" s="57"/>
+      <c r="M93" s="55"/>
+      <c r="N93" s="56"/>
+      <c r="O93" s="57"/>
+      <c r="P93" s="55"/>
+      <c r="Q93" s="56"/>
+      <c r="R93" s="56"/>
+      <c r="S93" s="57"/>
       <c r="T93" s="11"/>
       <c r="U93" s="11"/>
       <c r="V93" s="11"/>
@@ -3623,23 +3648,23 @@
     <row r="94" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
-      <c r="C94" s="56"/>
-      <c r="D94" s="54"/>
-      <c r="E94" s="55"/>
-      <c r="F94" s="53"/>
-      <c r="G94" s="54"/>
-      <c r="H94" s="55"/>
-      <c r="I94" s="53"/>
-      <c r="J94" s="54"/>
-      <c r="K94" s="54"/>
-      <c r="L94" s="55"/>
-      <c r="M94" s="53"/>
-      <c r="N94" s="54"/>
-      <c r="O94" s="55"/>
-      <c r="P94" s="53"/>
-      <c r="Q94" s="54"/>
-      <c r="R94" s="54"/>
-      <c r="S94" s="55"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="56"/>
+      <c r="H94" s="57"/>
+      <c r="I94" s="55"/>
+      <c r="J94" s="56"/>
+      <c r="K94" s="56"/>
+      <c r="L94" s="57"/>
+      <c r="M94" s="55"/>
+      <c r="N94" s="56"/>
+      <c r="O94" s="57"/>
+      <c r="P94" s="55"/>
+      <c r="Q94" s="56"/>
+      <c r="R94" s="56"/>
+      <c r="S94" s="57"/>
       <c r="T94" s="11"/>
       <c r="U94" s="11"/>
       <c r="V94" s="11"/>
@@ -3650,23 +3675,23 @@
     <row r="95" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
-      <c r="C95" s="56"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="53"/>
-      <c r="G95" s="54"/>
-      <c r="H95" s="55"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="54"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="55"/>
-      <c r="M95" s="53"/>
-      <c r="N95" s="54"/>
-      <c r="O95" s="55"/>
-      <c r="P95" s="53"/>
-      <c r="Q95" s="54"/>
-      <c r="R95" s="54"/>
-      <c r="S95" s="55"/>
+      <c r="C95" s="58"/>
+      <c r="D95" s="56"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="56"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="55"/>
+      <c r="J95" s="56"/>
+      <c r="K95" s="56"/>
+      <c r="L95" s="57"/>
+      <c r="M95" s="55"/>
+      <c r="N95" s="56"/>
+      <c r="O95" s="57"/>
+      <c r="P95" s="55"/>
+      <c r="Q95" s="56"/>
+      <c r="R95" s="56"/>
+      <c r="S95" s="57"/>
       <c r="T95" s="11"/>
       <c r="U95" s="11"/>
       <c r="V95" s="11"/>
@@ -3677,23 +3702,23 @@
     <row r="96" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
-      <c r="C96" s="56"/>
-      <c r="D96" s="54"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="54"/>
-      <c r="H96" s="55"/>
-      <c r="I96" s="53"/>
-      <c r="J96" s="54"/>
-      <c r="K96" s="54"/>
-      <c r="L96" s="55"/>
-      <c r="M96" s="53"/>
-      <c r="N96" s="54"/>
-      <c r="O96" s="55"/>
-      <c r="P96" s="53"/>
-      <c r="Q96" s="54"/>
-      <c r="R96" s="54"/>
-      <c r="S96" s="55"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="56"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="56"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="55"/>
+      <c r="J96" s="56"/>
+      <c r="K96" s="56"/>
+      <c r="L96" s="57"/>
+      <c r="M96" s="55"/>
+      <c r="N96" s="56"/>
+      <c r="O96" s="57"/>
+      <c r="P96" s="55"/>
+      <c r="Q96" s="56"/>
+      <c r="R96" s="56"/>
+      <c r="S96" s="57"/>
       <c r="T96" s="11"/>
       <c r="U96" s="11"/>
       <c r="V96" s="11"/>
@@ -3704,23 +3729,23 @@
     <row r="97" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
-      <c r="C97" s="56"/>
-      <c r="D97" s="54"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="53"/>
-      <c r="G97" s="54"/>
-      <c r="H97" s="55"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="54"/>
-      <c r="K97" s="54"/>
-      <c r="L97" s="55"/>
-      <c r="M97" s="53"/>
-      <c r="N97" s="54"/>
-      <c r="O97" s="55"/>
-      <c r="P97" s="53"/>
-      <c r="Q97" s="54"/>
-      <c r="R97" s="54"/>
-      <c r="S97" s="55"/>
+      <c r="C97" s="58"/>
+      <c r="D97" s="56"/>
+      <c r="E97" s="57"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="56"/>
+      <c r="H97" s="57"/>
+      <c r="I97" s="55"/>
+      <c r="J97" s="56"/>
+      <c r="K97" s="56"/>
+      <c r="L97" s="57"/>
+      <c r="M97" s="55"/>
+      <c r="N97" s="56"/>
+      <c r="O97" s="57"/>
+      <c r="P97" s="55"/>
+      <c r="Q97" s="56"/>
+      <c r="R97" s="56"/>
+      <c r="S97" s="57"/>
       <c r="T97" s="11"/>
       <c r="U97" s="11"/>
       <c r="V97" s="11"/>
@@ -3731,23 +3756,23 @@
     <row r="98" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
-      <c r="C98" s="56"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="55"/>
-      <c r="F98" s="53"/>
-      <c r="G98" s="54"/>
-      <c r="H98" s="55"/>
-      <c r="I98" s="53"/>
-      <c r="J98" s="54"/>
-      <c r="K98" s="54"/>
-      <c r="L98" s="55"/>
-      <c r="M98" s="53"/>
-      <c r="N98" s="54"/>
-      <c r="O98" s="55"/>
-      <c r="P98" s="53"/>
-      <c r="Q98" s="54"/>
-      <c r="R98" s="54"/>
-      <c r="S98" s="55"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="55"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="57"/>
+      <c r="I98" s="55"/>
+      <c r="J98" s="56"/>
+      <c r="K98" s="56"/>
+      <c r="L98" s="57"/>
+      <c r="M98" s="55"/>
+      <c r="N98" s="56"/>
+      <c r="O98" s="57"/>
+      <c r="P98" s="55"/>
+      <c r="Q98" s="56"/>
+      <c r="R98" s="56"/>
+      <c r="S98" s="57"/>
       <c r="T98" s="11"/>
       <c r="U98" s="11"/>
       <c r="V98" s="11"/>
@@ -3758,23 +3783,23 @@
     <row r="99" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
-      <c r="C99" s="56"/>
-      <c r="D99" s="54"/>
-      <c r="E99" s="55"/>
-      <c r="F99" s="53"/>
-      <c r="G99" s="54"/>
-      <c r="H99" s="55"/>
-      <c r="I99" s="53"/>
-      <c r="J99" s="54"/>
-      <c r="K99" s="54"/>
-      <c r="L99" s="55"/>
-      <c r="M99" s="53"/>
-      <c r="N99" s="54"/>
-      <c r="O99" s="55"/>
-      <c r="P99" s="53"/>
-      <c r="Q99" s="54"/>
-      <c r="R99" s="54"/>
-      <c r="S99" s="55"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="56"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="55"/>
+      <c r="J99" s="56"/>
+      <c r="K99" s="56"/>
+      <c r="L99" s="57"/>
+      <c r="M99" s="55"/>
+      <c r="N99" s="56"/>
+      <c r="O99" s="57"/>
+      <c r="P99" s="55"/>
+      <c r="Q99" s="56"/>
+      <c r="R99" s="56"/>
+      <c r="S99" s="57"/>
       <c r="T99" s="11"/>
       <c r="U99" s="11"/>
       <c r="V99" s="11"/>
@@ -3785,23 +3810,23 @@
     <row r="100" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
-      <c r="C100" s="56"/>
-      <c r="D100" s="54"/>
-      <c r="E100" s="55"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="54"/>
-      <c r="H100" s="55"/>
-      <c r="I100" s="53"/>
-      <c r="J100" s="54"/>
-      <c r="K100" s="54"/>
-      <c r="L100" s="55"/>
-      <c r="M100" s="53"/>
-      <c r="N100" s="54"/>
-      <c r="O100" s="55"/>
-      <c r="P100" s="53"/>
-      <c r="Q100" s="54"/>
-      <c r="R100" s="54"/>
-      <c r="S100" s="55"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="56"/>
+      <c r="E100" s="57"/>
+      <c r="F100" s="55"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="55"/>
+      <c r="J100" s="56"/>
+      <c r="K100" s="56"/>
+      <c r="L100" s="57"/>
+      <c r="M100" s="55"/>
+      <c r="N100" s="56"/>
+      <c r="O100" s="57"/>
+      <c r="P100" s="55"/>
+      <c r="Q100" s="56"/>
+      <c r="R100" s="56"/>
+      <c r="S100" s="57"/>
       <c r="T100" s="11"/>
       <c r="U100" s="11"/>
       <c r="V100" s="11"/>
@@ -3812,23 +3837,23 @@
     <row r="101" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
-      <c r="C101" s="56"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="55"/>
-      <c r="F101" s="53"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="55"/>
-      <c r="I101" s="53"/>
-      <c r="J101" s="54"/>
-      <c r="K101" s="54"/>
-      <c r="L101" s="55"/>
-      <c r="M101" s="53"/>
-      <c r="N101" s="54"/>
-      <c r="O101" s="55"/>
-      <c r="P101" s="53"/>
-      <c r="Q101" s="54"/>
-      <c r="R101" s="54"/>
-      <c r="S101" s="55"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="56"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="55"/>
+      <c r="G101" s="56"/>
+      <c r="H101" s="57"/>
+      <c r="I101" s="55"/>
+      <c r="J101" s="56"/>
+      <c r="K101" s="56"/>
+      <c r="L101" s="57"/>
+      <c r="M101" s="55"/>
+      <c r="N101" s="56"/>
+      <c r="O101" s="57"/>
+      <c r="P101" s="55"/>
+      <c r="Q101" s="56"/>
+      <c r="R101" s="56"/>
+      <c r="S101" s="57"/>
       <c r="T101" s="11"/>
       <c r="U101" s="11"/>
       <c r="V101" s="11"/>
@@ -3839,23 +3864,23 @@
     <row r="102" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
-      <c r="C102" s="56"/>
-      <c r="D102" s="54"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="53"/>
-      <c r="G102" s="54"/>
-      <c r="H102" s="55"/>
-      <c r="I102" s="53"/>
-      <c r="J102" s="54"/>
-      <c r="K102" s="54"/>
-      <c r="L102" s="55"/>
-      <c r="M102" s="53"/>
-      <c r="N102" s="54"/>
-      <c r="O102" s="55"/>
-      <c r="P102" s="53"/>
-      <c r="Q102" s="54"/>
-      <c r="R102" s="54"/>
-      <c r="S102" s="55"/>
+      <c r="C102" s="58"/>
+      <c r="D102" s="56"/>
+      <c r="E102" s="57"/>
+      <c r="F102" s="55"/>
+      <c r="G102" s="56"/>
+      <c r="H102" s="57"/>
+      <c r="I102" s="55"/>
+      <c r="J102" s="56"/>
+      <c r="K102" s="56"/>
+      <c r="L102" s="57"/>
+      <c r="M102" s="55"/>
+      <c r="N102" s="56"/>
+      <c r="O102" s="57"/>
+      <c r="P102" s="55"/>
+      <c r="Q102" s="56"/>
+      <c r="R102" s="56"/>
+      <c r="S102" s="57"/>
       <c r="T102" s="11"/>
       <c r="U102" s="11"/>
       <c r="V102" s="11"/>
@@ -3866,23 +3891,23 @@
     <row r="103" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
-      <c r="C103" s="56"/>
-      <c r="D103" s="54"/>
-      <c r="E103" s="55"/>
-      <c r="F103" s="53"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="55"/>
-      <c r="I103" s="53"/>
-      <c r="J103" s="54"/>
-      <c r="K103" s="54"/>
-      <c r="L103" s="55"/>
-      <c r="M103" s="53"/>
-      <c r="N103" s="54"/>
-      <c r="O103" s="55"/>
-      <c r="P103" s="53"/>
-      <c r="Q103" s="54"/>
-      <c r="R103" s="54"/>
-      <c r="S103" s="55"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="56"/>
+      <c r="E103" s="57"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="56"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="55"/>
+      <c r="J103" s="56"/>
+      <c r="K103" s="56"/>
+      <c r="L103" s="57"/>
+      <c r="M103" s="55"/>
+      <c r="N103" s="56"/>
+      <c r="O103" s="57"/>
+      <c r="P103" s="55"/>
+      <c r="Q103" s="56"/>
+      <c r="R103" s="56"/>
+      <c r="S103" s="57"/>
       <c r="T103" s="11"/>
       <c r="U103" s="11"/>
       <c r="V103" s="11"/>
@@ -3893,23 +3918,23 @@
     <row r="104" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
-      <c r="C104" s="56"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="55"/>
-      <c r="F104" s="53"/>
-      <c r="G104" s="54"/>
-      <c r="H104" s="55"/>
-      <c r="I104" s="53"/>
-      <c r="J104" s="54"/>
-      <c r="K104" s="54"/>
-      <c r="L104" s="55"/>
-      <c r="M104" s="53"/>
-      <c r="N104" s="54"/>
-      <c r="O104" s="55"/>
-      <c r="P104" s="53"/>
-      <c r="Q104" s="54"/>
-      <c r="R104" s="54"/>
-      <c r="S104" s="55"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="57"/>
+      <c r="F104" s="55"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="57"/>
+      <c r="I104" s="55"/>
+      <c r="J104" s="56"/>
+      <c r="K104" s="56"/>
+      <c r="L104" s="57"/>
+      <c r="M104" s="55"/>
+      <c r="N104" s="56"/>
+      <c r="O104" s="57"/>
+      <c r="P104" s="55"/>
+      <c r="Q104" s="56"/>
+      <c r="R104" s="56"/>
+      <c r="S104" s="57"/>
       <c r="T104" s="11"/>
       <c r="U104" s="11"/>
       <c r="V104" s="11"/>
@@ -3920,23 +3945,23 @@
     <row r="105" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
-      <c r="C105" s="56"/>
-      <c r="D105" s="54"/>
-      <c r="E105" s="55"/>
-      <c r="F105" s="53"/>
-      <c r="G105" s="54"/>
-      <c r="H105" s="55"/>
-      <c r="I105" s="53"/>
-      <c r="J105" s="54"/>
-      <c r="K105" s="54"/>
-      <c r="L105" s="55"/>
-      <c r="M105" s="53"/>
-      <c r="N105" s="54"/>
-      <c r="O105" s="55"/>
-      <c r="P105" s="53"/>
-      <c r="Q105" s="54"/>
-      <c r="R105" s="54"/>
-      <c r="S105" s="55"/>
+      <c r="C105" s="58"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="57"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="56"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="55"/>
+      <c r="J105" s="56"/>
+      <c r="K105" s="56"/>
+      <c r="L105" s="57"/>
+      <c r="M105" s="55"/>
+      <c r="N105" s="56"/>
+      <c r="O105" s="57"/>
+      <c r="P105" s="55"/>
+      <c r="Q105" s="56"/>
+      <c r="R105" s="56"/>
+      <c r="S105" s="57"/>
       <c r="T105" s="11"/>
       <c r="U105" s="11"/>
       <c r="V105" s="11"/>
@@ -3947,23 +3972,23 @@
     <row r="106" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
-      <c r="C106" s="56"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="55"/>
-      <c r="F106" s="53"/>
-      <c r="G106" s="54"/>
-      <c r="H106" s="55"/>
-      <c r="I106" s="53"/>
-      <c r="J106" s="54"/>
-      <c r="K106" s="54"/>
-      <c r="L106" s="55"/>
-      <c r="M106" s="53"/>
-      <c r="N106" s="54"/>
-      <c r="O106" s="55"/>
-      <c r="P106" s="53"/>
-      <c r="Q106" s="54"/>
-      <c r="R106" s="54"/>
-      <c r="S106" s="55"/>
+      <c r="C106" s="58"/>
+      <c r="D106" s="56"/>
+      <c r="E106" s="57"/>
+      <c r="F106" s="55"/>
+      <c r="G106" s="56"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="55"/>
+      <c r="J106" s="56"/>
+      <c r="K106" s="56"/>
+      <c r="L106" s="57"/>
+      <c r="M106" s="55"/>
+      <c r="N106" s="56"/>
+      <c r="O106" s="57"/>
+      <c r="P106" s="55"/>
+      <c r="Q106" s="56"/>
+      <c r="R106" s="56"/>
+      <c r="S106" s="57"/>
       <c r="T106" s="11"/>
       <c r="U106" s="11"/>
       <c r="V106" s="11"/>
@@ -3974,23 +3999,23 @@
     <row r="107" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
-      <c r="C107" s="56"/>
-      <c r="D107" s="54"/>
-      <c r="E107" s="55"/>
-      <c r="F107" s="53"/>
-      <c r="G107" s="54"/>
-      <c r="H107" s="55"/>
-      <c r="I107" s="53"/>
-      <c r="J107" s="54"/>
-      <c r="K107" s="54"/>
-      <c r="L107" s="55"/>
-      <c r="M107" s="53"/>
-      <c r="N107" s="54"/>
-      <c r="O107" s="55"/>
-      <c r="P107" s="53"/>
-      <c r="Q107" s="54"/>
-      <c r="R107" s="54"/>
-      <c r="S107" s="55"/>
+      <c r="C107" s="58"/>
+      <c r="D107" s="56"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="55"/>
+      <c r="G107" s="56"/>
+      <c r="H107" s="57"/>
+      <c r="I107" s="55"/>
+      <c r="J107" s="56"/>
+      <c r="K107" s="56"/>
+      <c r="L107" s="57"/>
+      <c r="M107" s="55"/>
+      <c r="N107" s="56"/>
+      <c r="O107" s="57"/>
+      <c r="P107" s="55"/>
+      <c r="Q107" s="56"/>
+      <c r="R107" s="56"/>
+      <c r="S107" s="57"/>
       <c r="T107" s="11"/>
       <c r="U107" s="11"/>
       <c r="V107" s="11"/>
@@ -4001,23 +4026,23 @@
     <row r="108" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
-      <c r="C108" s="56"/>
-      <c r="D108" s="54"/>
-      <c r="E108" s="55"/>
-      <c r="F108" s="53"/>
-      <c r="G108" s="54"/>
-      <c r="H108" s="55"/>
-      <c r="I108" s="53"/>
-      <c r="J108" s="54"/>
-      <c r="K108" s="54"/>
-      <c r="L108" s="55"/>
-      <c r="M108" s="53"/>
-      <c r="N108" s="54"/>
-      <c r="O108" s="55"/>
-      <c r="P108" s="53"/>
-      <c r="Q108" s="54"/>
-      <c r="R108" s="54"/>
-      <c r="S108" s="55"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="56"/>
+      <c r="E108" s="57"/>
+      <c r="F108" s="55"/>
+      <c r="G108" s="56"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="55"/>
+      <c r="J108" s="56"/>
+      <c r="K108" s="56"/>
+      <c r="L108" s="57"/>
+      <c r="M108" s="55"/>
+      <c r="N108" s="56"/>
+      <c r="O108" s="57"/>
+      <c r="P108" s="55"/>
+      <c r="Q108" s="56"/>
+      <c r="R108" s="56"/>
+      <c r="S108" s="57"/>
       <c r="T108" s="11"/>
       <c r="U108" s="11"/>
       <c r="V108" s="11"/>
@@ -4028,23 +4053,23 @@
     <row r="109" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
-      <c r="C109" s="56"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="55"/>
-      <c r="F109" s="53"/>
-      <c r="G109" s="54"/>
-      <c r="H109" s="55"/>
-      <c r="I109" s="53"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="54"/>
-      <c r="L109" s="55"/>
-      <c r="M109" s="53"/>
-      <c r="N109" s="54"/>
-      <c r="O109" s="55"/>
-      <c r="P109" s="53"/>
-      <c r="Q109" s="54"/>
-      <c r="R109" s="54"/>
-      <c r="S109" s="55"/>
+      <c r="C109" s="58"/>
+      <c r="D109" s="56"/>
+      <c r="E109" s="57"/>
+      <c r="F109" s="55"/>
+      <c r="G109" s="56"/>
+      <c r="H109" s="57"/>
+      <c r="I109" s="55"/>
+      <c r="J109" s="56"/>
+      <c r="K109" s="56"/>
+      <c r="L109" s="57"/>
+      <c r="M109" s="55"/>
+      <c r="N109" s="56"/>
+      <c r="O109" s="57"/>
+      <c r="P109" s="55"/>
+      <c r="Q109" s="56"/>
+      <c r="R109" s="56"/>
+      <c r="S109" s="57"/>
       <c r="T109" s="11"/>
       <c r="U109" s="11"/>
       <c r="V109" s="11"/>
@@ -4055,23 +4080,23 @@
     <row r="110" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
-      <c r="C110" s="56"/>
-      <c r="D110" s="54"/>
-      <c r="E110" s="55"/>
-      <c r="F110" s="53"/>
-      <c r="G110" s="54"/>
-      <c r="H110" s="55"/>
-      <c r="I110" s="53"/>
-      <c r="J110" s="54"/>
-      <c r="K110" s="54"/>
-      <c r="L110" s="55"/>
-      <c r="M110" s="53"/>
-      <c r="N110" s="54"/>
-      <c r="O110" s="55"/>
-      <c r="P110" s="53"/>
-      <c r="Q110" s="54"/>
-      <c r="R110" s="54"/>
-      <c r="S110" s="55"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="56"/>
+      <c r="E110" s="57"/>
+      <c r="F110" s="55"/>
+      <c r="G110" s="56"/>
+      <c r="H110" s="57"/>
+      <c r="I110" s="55"/>
+      <c r="J110" s="56"/>
+      <c r="K110" s="56"/>
+      <c r="L110" s="57"/>
+      <c r="M110" s="55"/>
+      <c r="N110" s="56"/>
+      <c r="O110" s="57"/>
+      <c r="P110" s="55"/>
+      <c r="Q110" s="56"/>
+      <c r="R110" s="56"/>
+      <c r="S110" s="57"/>
       <c r="T110" s="11"/>
       <c r="U110" s="11"/>
       <c r="V110" s="11"/>
@@ -4082,23 +4107,23 @@
     <row r="111" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
-      <c r="C111" s="56"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="55"/>
-      <c r="F111" s="53"/>
-      <c r="G111" s="54"/>
-      <c r="H111" s="55"/>
-      <c r="I111" s="53"/>
-      <c r="J111" s="54"/>
-      <c r="K111" s="54"/>
-      <c r="L111" s="55"/>
-      <c r="M111" s="53"/>
-      <c r="N111" s="54"/>
-      <c r="O111" s="55"/>
-      <c r="P111" s="53"/>
-      <c r="Q111" s="54"/>
-      <c r="R111" s="54"/>
-      <c r="S111" s="55"/>
+      <c r="C111" s="58"/>
+      <c r="D111" s="56"/>
+      <c r="E111" s="57"/>
+      <c r="F111" s="55"/>
+      <c r="G111" s="56"/>
+      <c r="H111" s="57"/>
+      <c r="I111" s="55"/>
+      <c r="J111" s="56"/>
+      <c r="K111" s="56"/>
+      <c r="L111" s="57"/>
+      <c r="M111" s="55"/>
+      <c r="N111" s="56"/>
+      <c r="O111" s="57"/>
+      <c r="P111" s="55"/>
+      <c r="Q111" s="56"/>
+      <c r="R111" s="56"/>
+      <c r="S111" s="57"/>
       <c r="T111" s="11"/>
       <c r="U111" s="11"/>
       <c r="V111" s="11"/>
@@ -4109,23 +4134,23 @@
     <row r="112" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
-      <c r="C112" s="56"/>
-      <c r="D112" s="54"/>
-      <c r="E112" s="55"/>
-      <c r="F112" s="53"/>
-      <c r="G112" s="54"/>
-      <c r="H112" s="55"/>
-      <c r="I112" s="53"/>
-      <c r="J112" s="54"/>
-      <c r="K112" s="54"/>
-      <c r="L112" s="55"/>
-      <c r="M112" s="53"/>
-      <c r="N112" s="54"/>
-      <c r="O112" s="55"/>
-      <c r="P112" s="53"/>
-      <c r="Q112" s="54"/>
-      <c r="R112" s="54"/>
-      <c r="S112" s="55"/>
+      <c r="C112" s="58"/>
+      <c r="D112" s="56"/>
+      <c r="E112" s="57"/>
+      <c r="F112" s="55"/>
+      <c r="G112" s="56"/>
+      <c r="H112" s="57"/>
+      <c r="I112" s="55"/>
+      <c r="J112" s="56"/>
+      <c r="K112" s="56"/>
+      <c r="L112" s="57"/>
+      <c r="M112" s="55"/>
+      <c r="N112" s="56"/>
+      <c r="O112" s="57"/>
+      <c r="P112" s="55"/>
+      <c r="Q112" s="56"/>
+      <c r="R112" s="56"/>
+      <c r="S112" s="57"/>
       <c r="T112" s="11"/>
       <c r="U112" s="11"/>
       <c r="V112" s="11"/>
@@ -4136,23 +4161,23 @@
     <row r="113" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
-      <c r="C113" s="56"/>
-      <c r="D113" s="54"/>
-      <c r="E113" s="55"/>
-      <c r="F113" s="53"/>
-      <c r="G113" s="54"/>
-      <c r="H113" s="55"/>
-      <c r="I113" s="53"/>
-      <c r="J113" s="54"/>
-      <c r="K113" s="54"/>
-      <c r="L113" s="55"/>
-      <c r="M113" s="53"/>
-      <c r="N113" s="54"/>
-      <c r="O113" s="55"/>
-      <c r="P113" s="53"/>
-      <c r="Q113" s="54"/>
-      <c r="R113" s="54"/>
-      <c r="S113" s="55"/>
+      <c r="C113" s="58"/>
+      <c r="D113" s="56"/>
+      <c r="E113" s="57"/>
+      <c r="F113" s="55"/>
+      <c r="G113" s="56"/>
+      <c r="H113" s="57"/>
+      <c r="I113" s="55"/>
+      <c r="J113" s="56"/>
+      <c r="K113" s="56"/>
+      <c r="L113" s="57"/>
+      <c r="M113" s="55"/>
+      <c r="N113" s="56"/>
+      <c r="O113" s="57"/>
+      <c r="P113" s="55"/>
+      <c r="Q113" s="56"/>
+      <c r="R113" s="56"/>
+      <c r="S113" s="57"/>
       <c r="T113" s="11"/>
       <c r="U113" s="11"/>
       <c r="V113" s="11"/>
@@ -4163,23 +4188,23 @@
     <row r="114" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
-      <c r="C114" s="56"/>
-      <c r="D114" s="54"/>
-      <c r="E114" s="55"/>
-      <c r="F114" s="53"/>
-      <c r="G114" s="54"/>
-      <c r="H114" s="55"/>
-      <c r="I114" s="53"/>
-      <c r="J114" s="54"/>
-      <c r="K114" s="54"/>
-      <c r="L114" s="55"/>
-      <c r="M114" s="53"/>
-      <c r="N114" s="54"/>
-      <c r="O114" s="55"/>
-      <c r="P114" s="53"/>
-      <c r="Q114" s="54"/>
-      <c r="R114" s="54"/>
-      <c r="S114" s="55"/>
+      <c r="C114" s="58"/>
+      <c r="D114" s="56"/>
+      <c r="E114" s="57"/>
+      <c r="F114" s="55"/>
+      <c r="G114" s="56"/>
+      <c r="H114" s="57"/>
+      <c r="I114" s="55"/>
+      <c r="J114" s="56"/>
+      <c r="K114" s="56"/>
+      <c r="L114" s="57"/>
+      <c r="M114" s="55"/>
+      <c r="N114" s="56"/>
+      <c r="O114" s="57"/>
+      <c r="P114" s="55"/>
+      <c r="Q114" s="56"/>
+      <c r="R114" s="56"/>
+      <c r="S114" s="57"/>
       <c r="T114" s="11"/>
       <c r="U114" s="11"/>
       <c r="V114" s="11"/>
@@ -4190,23 +4215,23 @@
     <row r="115" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
-      <c r="C115" s="56"/>
-      <c r="D115" s="54"/>
-      <c r="E115" s="55"/>
-      <c r="F115" s="53"/>
-      <c r="G115" s="54"/>
-      <c r="H115" s="55"/>
-      <c r="I115" s="53"/>
-      <c r="J115" s="54"/>
-      <c r="K115" s="54"/>
-      <c r="L115" s="55"/>
-      <c r="M115" s="53"/>
-      <c r="N115" s="54"/>
-      <c r="O115" s="55"/>
-      <c r="P115" s="53"/>
-      <c r="Q115" s="54"/>
-      <c r="R115" s="54"/>
-      <c r="S115" s="55"/>
+      <c r="C115" s="58"/>
+      <c r="D115" s="56"/>
+      <c r="E115" s="57"/>
+      <c r="F115" s="55"/>
+      <c r="G115" s="56"/>
+      <c r="H115" s="57"/>
+      <c r="I115" s="55"/>
+      <c r="J115" s="56"/>
+      <c r="K115" s="56"/>
+      <c r="L115" s="57"/>
+      <c r="M115" s="55"/>
+      <c r="N115" s="56"/>
+      <c r="O115" s="57"/>
+      <c r="P115" s="55"/>
+      <c r="Q115" s="56"/>
+      <c r="R115" s="56"/>
+      <c r="S115" s="57"/>
       <c r="T115" s="11"/>
       <c r="U115" s="11"/>
       <c r="V115" s="11"/>
@@ -4217,23 +4242,23 @@
     <row r="116" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
-      <c r="C116" s="56"/>
-      <c r="D116" s="54"/>
-      <c r="E116" s="55"/>
-      <c r="F116" s="53"/>
-      <c r="G116" s="54"/>
-      <c r="H116" s="55"/>
-      <c r="I116" s="53"/>
-      <c r="J116" s="54"/>
-      <c r="K116" s="54"/>
-      <c r="L116" s="55"/>
-      <c r="M116" s="53"/>
-      <c r="N116" s="54"/>
-      <c r="O116" s="55"/>
-      <c r="P116" s="53"/>
-      <c r="Q116" s="54"/>
-      <c r="R116" s="54"/>
-      <c r="S116" s="55"/>
+      <c r="C116" s="58"/>
+      <c r="D116" s="56"/>
+      <c r="E116" s="57"/>
+      <c r="F116" s="55"/>
+      <c r="G116" s="56"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="55"/>
+      <c r="J116" s="56"/>
+      <c r="K116" s="56"/>
+      <c r="L116" s="57"/>
+      <c r="M116" s="55"/>
+      <c r="N116" s="56"/>
+      <c r="O116" s="57"/>
+      <c r="P116" s="55"/>
+      <c r="Q116" s="56"/>
+      <c r="R116" s="56"/>
+      <c r="S116" s="57"/>
       <c r="T116" s="11"/>
       <c r="U116" s="11"/>
       <c r="V116" s="11"/>
@@ -4244,23 +4269,23 @@
     <row r="117" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
-      <c r="C117" s="56"/>
-      <c r="D117" s="54"/>
-      <c r="E117" s="55"/>
-      <c r="F117" s="53"/>
-      <c r="G117" s="54"/>
-      <c r="H117" s="55"/>
-      <c r="I117" s="53"/>
-      <c r="J117" s="54"/>
-      <c r="K117" s="54"/>
-      <c r="L117" s="55"/>
-      <c r="M117" s="53"/>
-      <c r="N117" s="54"/>
-      <c r="O117" s="55"/>
-      <c r="P117" s="53"/>
-      <c r="Q117" s="54"/>
-      <c r="R117" s="54"/>
-      <c r="S117" s="55"/>
+      <c r="C117" s="58"/>
+      <c r="D117" s="56"/>
+      <c r="E117" s="57"/>
+      <c r="F117" s="55"/>
+      <c r="G117" s="56"/>
+      <c r="H117" s="57"/>
+      <c r="I117" s="55"/>
+      <c r="J117" s="56"/>
+      <c r="K117" s="56"/>
+      <c r="L117" s="57"/>
+      <c r="M117" s="55"/>
+      <c r="N117" s="56"/>
+      <c r="O117" s="57"/>
+      <c r="P117" s="55"/>
+      <c r="Q117" s="56"/>
+      <c r="R117" s="56"/>
+      <c r="S117" s="57"/>
       <c r="T117" s="11"/>
       <c r="U117" s="11"/>
       <c r="V117" s="11"/>
@@ -4271,23 +4296,23 @@
     <row r="118" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
-      <c r="C118" s="56"/>
-      <c r="D118" s="54"/>
-      <c r="E118" s="55"/>
-      <c r="F118" s="53"/>
-      <c r="G118" s="54"/>
-      <c r="H118" s="55"/>
-      <c r="I118" s="53"/>
-      <c r="J118" s="54"/>
-      <c r="K118" s="54"/>
-      <c r="L118" s="55"/>
-      <c r="M118" s="53"/>
-      <c r="N118" s="54"/>
-      <c r="O118" s="55"/>
-      <c r="P118" s="53"/>
-      <c r="Q118" s="54"/>
-      <c r="R118" s="54"/>
-      <c r="S118" s="55"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="56"/>
+      <c r="E118" s="57"/>
+      <c r="F118" s="55"/>
+      <c r="G118" s="56"/>
+      <c r="H118" s="57"/>
+      <c r="I118" s="55"/>
+      <c r="J118" s="56"/>
+      <c r="K118" s="56"/>
+      <c r="L118" s="57"/>
+      <c r="M118" s="55"/>
+      <c r="N118" s="56"/>
+      <c r="O118" s="57"/>
+      <c r="P118" s="55"/>
+      <c r="Q118" s="56"/>
+      <c r="R118" s="56"/>
+      <c r="S118" s="57"/>
       <c r="T118" s="11"/>
       <c r="U118" s="11"/>
       <c r="V118" s="11"/>
@@ -4298,23 +4323,23 @@
     <row r="119" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
-      <c r="C119" s="56"/>
-      <c r="D119" s="54"/>
-      <c r="E119" s="55"/>
-      <c r="F119" s="53"/>
-      <c r="G119" s="54"/>
-      <c r="H119" s="55"/>
-      <c r="I119" s="53"/>
-      <c r="J119" s="54"/>
-      <c r="K119" s="54"/>
-      <c r="L119" s="55"/>
-      <c r="M119" s="53"/>
-      <c r="N119" s="54"/>
-      <c r="O119" s="55"/>
-      <c r="P119" s="53"/>
-      <c r="Q119" s="54"/>
-      <c r="R119" s="54"/>
-      <c r="S119" s="55"/>
+      <c r="C119" s="58"/>
+      <c r="D119" s="56"/>
+      <c r="E119" s="57"/>
+      <c r="F119" s="55"/>
+      <c r="G119" s="56"/>
+      <c r="H119" s="57"/>
+      <c r="I119" s="55"/>
+      <c r="J119" s="56"/>
+      <c r="K119" s="56"/>
+      <c r="L119" s="57"/>
+      <c r="M119" s="55"/>
+      <c r="N119" s="56"/>
+      <c r="O119" s="57"/>
+      <c r="P119" s="55"/>
+      <c r="Q119" s="56"/>
+      <c r="R119" s="56"/>
+      <c r="S119" s="57"/>
       <c r="T119" s="11"/>
       <c r="U119" s="11"/>
       <c r="V119" s="11"/>
@@ -4325,23 +4350,23 @@
     <row r="120" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
-      <c r="C120" s="56"/>
-      <c r="D120" s="54"/>
-      <c r="E120" s="55"/>
-      <c r="F120" s="53"/>
-      <c r="G120" s="54"/>
-      <c r="H120" s="55"/>
-      <c r="I120" s="53"/>
-      <c r="J120" s="54"/>
-      <c r="K120" s="54"/>
-      <c r="L120" s="55"/>
-      <c r="M120" s="53"/>
-      <c r="N120" s="54"/>
-      <c r="O120" s="55"/>
-      <c r="P120" s="53"/>
-      <c r="Q120" s="54"/>
-      <c r="R120" s="54"/>
-      <c r="S120" s="55"/>
+      <c r="C120" s="58"/>
+      <c r="D120" s="56"/>
+      <c r="E120" s="57"/>
+      <c r="F120" s="55"/>
+      <c r="G120" s="56"/>
+      <c r="H120" s="57"/>
+      <c r="I120" s="55"/>
+      <c r="J120" s="56"/>
+      <c r="K120" s="56"/>
+      <c r="L120" s="57"/>
+      <c r="M120" s="55"/>
+      <c r="N120" s="56"/>
+      <c r="O120" s="57"/>
+      <c r="P120" s="55"/>
+      <c r="Q120" s="56"/>
+      <c r="R120" s="56"/>
+      <c r="S120" s="57"/>
       <c r="T120" s="11"/>
       <c r="U120" s="11"/>
       <c r="V120" s="11"/>
@@ -4352,23 +4377,23 @@
     <row r="121" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
-      <c r="C121" s="56"/>
-      <c r="D121" s="54"/>
-      <c r="E121" s="55"/>
-      <c r="F121" s="53"/>
-      <c r="G121" s="54"/>
-      <c r="H121" s="55"/>
-      <c r="I121" s="53"/>
-      <c r="J121" s="54"/>
-      <c r="K121" s="54"/>
-      <c r="L121" s="55"/>
-      <c r="M121" s="53"/>
-      <c r="N121" s="54"/>
-      <c r="O121" s="55"/>
-      <c r="P121" s="53"/>
-      <c r="Q121" s="54"/>
-      <c r="R121" s="54"/>
-      <c r="S121" s="55"/>
+      <c r="C121" s="58"/>
+      <c r="D121" s="56"/>
+      <c r="E121" s="57"/>
+      <c r="F121" s="55"/>
+      <c r="G121" s="56"/>
+      <c r="H121" s="57"/>
+      <c r="I121" s="55"/>
+      <c r="J121" s="56"/>
+      <c r="K121" s="56"/>
+      <c r="L121" s="57"/>
+      <c r="M121" s="55"/>
+      <c r="N121" s="56"/>
+      <c r="O121" s="57"/>
+      <c r="P121" s="55"/>
+      <c r="Q121" s="56"/>
+      <c r="R121" s="56"/>
+      <c r="S121" s="57"/>
       <c r="T121" s="11"/>
       <c r="U121" s="11"/>
       <c r="V121" s="11"/>
@@ -4379,23 +4404,23 @@
     <row r="122" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
-      <c r="C122" s="56"/>
-      <c r="D122" s="54"/>
-      <c r="E122" s="55"/>
-      <c r="F122" s="53"/>
-      <c r="G122" s="54"/>
-      <c r="H122" s="55"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="54"/>
-      <c r="K122" s="54"/>
-      <c r="L122" s="55"/>
-      <c r="M122" s="53"/>
-      <c r="N122" s="54"/>
-      <c r="O122" s="55"/>
-      <c r="P122" s="53"/>
-      <c r="Q122" s="54"/>
-      <c r="R122" s="54"/>
-      <c r="S122" s="55"/>
+      <c r="C122" s="58"/>
+      <c r="D122" s="56"/>
+      <c r="E122" s="57"/>
+      <c r="F122" s="55"/>
+      <c r="G122" s="56"/>
+      <c r="H122" s="57"/>
+      <c r="I122" s="55"/>
+      <c r="J122" s="56"/>
+      <c r="K122" s="56"/>
+      <c r="L122" s="57"/>
+      <c r="M122" s="55"/>
+      <c r="N122" s="56"/>
+      <c r="O122" s="57"/>
+      <c r="P122" s="55"/>
+      <c r="Q122" s="56"/>
+      <c r="R122" s="56"/>
+      <c r="S122" s="57"/>
       <c r="T122" s="11"/>
       <c r="U122" s="11"/>
       <c r="V122" s="11"/>
@@ -4406,23 +4431,23 @@
     <row r="123" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
-      <c r="C123" s="56"/>
-      <c r="D123" s="54"/>
-      <c r="E123" s="55"/>
-      <c r="F123" s="53"/>
-      <c r="G123" s="54"/>
-      <c r="H123" s="55"/>
-      <c r="I123" s="53"/>
-      <c r="J123" s="54"/>
-      <c r="K123" s="54"/>
-      <c r="L123" s="55"/>
-      <c r="M123" s="53"/>
-      <c r="N123" s="54"/>
-      <c r="O123" s="55"/>
-      <c r="P123" s="53"/>
-      <c r="Q123" s="54"/>
-      <c r="R123" s="54"/>
-      <c r="S123" s="55"/>
+      <c r="C123" s="58"/>
+      <c r="D123" s="56"/>
+      <c r="E123" s="57"/>
+      <c r="F123" s="55"/>
+      <c r="G123" s="56"/>
+      <c r="H123" s="57"/>
+      <c r="I123" s="55"/>
+      <c r="J123" s="56"/>
+      <c r="K123" s="56"/>
+      <c r="L123" s="57"/>
+      <c r="M123" s="55"/>
+      <c r="N123" s="56"/>
+      <c r="O123" s="57"/>
+      <c r="P123" s="55"/>
+      <c r="Q123" s="56"/>
+      <c r="R123" s="56"/>
+      <c r="S123" s="57"/>
       <c r="T123" s="11"/>
       <c r="U123" s="11"/>
       <c r="V123" s="11"/>
@@ -4433,23 +4458,23 @@
     <row r="124" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
-      <c r="C124" s="56"/>
-      <c r="D124" s="54"/>
-      <c r="E124" s="55"/>
-      <c r="F124" s="53"/>
-      <c r="G124" s="54"/>
-      <c r="H124" s="55"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="54"/>
-      <c r="K124" s="54"/>
-      <c r="L124" s="55"/>
-      <c r="M124" s="53"/>
-      <c r="N124" s="54"/>
-      <c r="O124" s="55"/>
-      <c r="P124" s="53"/>
-      <c r="Q124" s="54"/>
-      <c r="R124" s="54"/>
-      <c r="S124" s="55"/>
+      <c r="C124" s="58"/>
+      <c r="D124" s="56"/>
+      <c r="E124" s="57"/>
+      <c r="F124" s="55"/>
+      <c r="G124" s="56"/>
+      <c r="H124" s="57"/>
+      <c r="I124" s="55"/>
+      <c r="J124" s="56"/>
+      <c r="K124" s="56"/>
+      <c r="L124" s="57"/>
+      <c r="M124" s="55"/>
+      <c r="N124" s="56"/>
+      <c r="O124" s="57"/>
+      <c r="P124" s="55"/>
+      <c r="Q124" s="56"/>
+      <c r="R124" s="56"/>
+      <c r="S124" s="57"/>
       <c r="T124" s="11"/>
       <c r="U124" s="11"/>
       <c r="V124" s="11"/>
@@ -4460,23 +4485,23 @@
     <row r="125" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
-      <c r="C125" s="56"/>
-      <c r="D125" s="54"/>
-      <c r="E125" s="55"/>
-      <c r="F125" s="53"/>
-      <c r="G125" s="54"/>
-      <c r="H125" s="55"/>
-      <c r="I125" s="53"/>
-      <c r="J125" s="54"/>
-      <c r="K125" s="54"/>
-      <c r="L125" s="55"/>
-      <c r="M125" s="53"/>
-      <c r="N125" s="54"/>
-      <c r="O125" s="55"/>
-      <c r="P125" s="53"/>
-      <c r="Q125" s="54"/>
-      <c r="R125" s="54"/>
-      <c r="S125" s="55"/>
+      <c r="C125" s="58"/>
+      <c r="D125" s="56"/>
+      <c r="E125" s="57"/>
+      <c r="F125" s="55"/>
+      <c r="G125" s="56"/>
+      <c r="H125" s="57"/>
+      <c r="I125" s="55"/>
+      <c r="J125" s="56"/>
+      <c r="K125" s="56"/>
+      <c r="L125" s="57"/>
+      <c r="M125" s="55"/>
+      <c r="N125" s="56"/>
+      <c r="O125" s="57"/>
+      <c r="P125" s="55"/>
+      <c r="Q125" s="56"/>
+      <c r="R125" s="56"/>
+      <c r="S125" s="57"/>
       <c r="T125" s="11"/>
       <c r="U125" s="11"/>
       <c r="V125" s="11"/>
@@ -4487,23 +4512,23 @@
     <row r="126" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
-      <c r="C126" s="56"/>
-      <c r="D126" s="54"/>
-      <c r="E126" s="55"/>
-      <c r="F126" s="53"/>
-      <c r="G126" s="54"/>
-      <c r="H126" s="55"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="54"/>
-      <c r="K126" s="54"/>
-      <c r="L126" s="55"/>
-      <c r="M126" s="53"/>
-      <c r="N126" s="54"/>
-      <c r="O126" s="55"/>
-      <c r="P126" s="53"/>
-      <c r="Q126" s="54"/>
-      <c r="R126" s="54"/>
-      <c r="S126" s="55"/>
+      <c r="C126" s="26"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="30"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="11"/>
+      <c r="O126" s="11"/>
+      <c r="P126" s="11"/>
+      <c r="Q126" s="11"/>
+      <c r="R126" s="11"/>
+      <c r="S126" s="11"/>
       <c r="T126" s="11"/>
       <c r="U126" s="11"/>
       <c r="V126" s="11"/>
@@ -26219,143 +26244,212 @@
       <c r="X930" s="11"/>
       <c r="Y930" s="12"/>
     </row>
-    <row r="931" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A931" s="14"/>
-      <c r="B931" s="14"/>
-      <c r="C931" s="26"/>
-      <c r="D931" s="30"/>
-      <c r="E931" s="30"/>
-      <c r="F931" s="30"/>
-      <c r="G931" s="11"/>
-      <c r="H931" s="11"/>
-      <c r="I931" s="11"/>
-      <c r="J931" s="11"/>
-      <c r="K931" s="11"/>
-      <c r="L931" s="11"/>
-      <c r="M931" s="11"/>
-      <c r="N931" s="11"/>
-      <c r="O931" s="11"/>
-      <c r="P931" s="11"/>
-      <c r="Q931" s="11"/>
-      <c r="R931" s="11"/>
-      <c r="S931" s="11"/>
-      <c r="T931" s="11"/>
-      <c r="U931" s="11"/>
-      <c r="V931" s="11"/>
-      <c r="W931" s="11"/>
-      <c r="X931" s="11"/>
-      <c r="Y931" s="12"/>
-    </row>
   </sheetData>
   <mergeCells count="327">
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="M102:O102"/>
+    <mergeCell ref="P102:S102"/>
+    <mergeCell ref="I100:L100"/>
+    <mergeCell ref="M100:O100"/>
+    <mergeCell ref="P100:S100"/>
+    <mergeCell ref="M122:O122"/>
+    <mergeCell ref="P122:S122"/>
+    <mergeCell ref="I120:L120"/>
+    <mergeCell ref="M120:O120"/>
+    <mergeCell ref="P120:S120"/>
+    <mergeCell ref="I121:L121"/>
+    <mergeCell ref="M121:O121"/>
+    <mergeCell ref="P121:S121"/>
+    <mergeCell ref="I122:L122"/>
+    <mergeCell ref="I101:L101"/>
+    <mergeCell ref="M101:O101"/>
+    <mergeCell ref="P101:S101"/>
+    <mergeCell ref="I102:L102"/>
+    <mergeCell ref="P106:S106"/>
+    <mergeCell ref="M109:O109"/>
+    <mergeCell ref="P109:S109"/>
+    <mergeCell ref="I107:L107"/>
+    <mergeCell ref="M107:O107"/>
+    <mergeCell ref="P107:S107"/>
+    <mergeCell ref="M125:O125"/>
+    <mergeCell ref="P125:S125"/>
+    <mergeCell ref="I123:L123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="P123:S123"/>
+    <mergeCell ref="I124:L124"/>
+    <mergeCell ref="M124:O124"/>
+    <mergeCell ref="P124:S124"/>
+    <mergeCell ref="I125:L125"/>
+    <mergeCell ref="M110:O110"/>
+    <mergeCell ref="P110:S110"/>
+    <mergeCell ref="I111:L111"/>
+    <mergeCell ref="M111:O111"/>
+    <mergeCell ref="P111:S111"/>
+    <mergeCell ref="I112:L112"/>
+    <mergeCell ref="I119:L119"/>
+    <mergeCell ref="M119:O119"/>
+    <mergeCell ref="P119:S119"/>
+    <mergeCell ref="M115:O115"/>
+    <mergeCell ref="P115:S115"/>
+    <mergeCell ref="I113:L113"/>
+    <mergeCell ref="M113:O113"/>
+    <mergeCell ref="P113:S113"/>
+    <mergeCell ref="I114:L114"/>
+    <mergeCell ref="F125:H125"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="F107:H107"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="F115:H115"/>
+    <mergeCell ref="F123:H123"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="P96:S96"/>
+    <mergeCell ref="I94:L94"/>
+    <mergeCell ref="M94:O94"/>
+    <mergeCell ref="P94:S94"/>
+    <mergeCell ref="I95:L95"/>
+    <mergeCell ref="M95:O95"/>
+    <mergeCell ref="P95:S95"/>
+    <mergeCell ref="I96:L96"/>
+    <mergeCell ref="M99:O99"/>
+    <mergeCell ref="P99:S99"/>
+    <mergeCell ref="I97:L97"/>
+    <mergeCell ref="M97:O97"/>
+    <mergeCell ref="P97:S97"/>
+    <mergeCell ref="I98:L98"/>
+    <mergeCell ref="M98:O98"/>
+    <mergeCell ref="P98:S98"/>
+    <mergeCell ref="I99:L99"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="C125:E125"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="M93:O93"/>
+    <mergeCell ref="P93:S93"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="P91:S91"/>
+    <mergeCell ref="I92:L92"/>
+    <mergeCell ref="M92:O92"/>
+    <mergeCell ref="P92:S92"/>
+    <mergeCell ref="I93:L93"/>
+    <mergeCell ref="M108:O108"/>
+    <mergeCell ref="P108:S108"/>
+    <mergeCell ref="I109:L109"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="P118:S118"/>
+    <mergeCell ref="I116:L116"/>
+    <mergeCell ref="M116:O116"/>
+    <mergeCell ref="P116:S116"/>
+    <mergeCell ref="I117:L117"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="P117:S117"/>
+    <mergeCell ref="I118:L118"/>
+    <mergeCell ref="M114:O114"/>
+    <mergeCell ref="P114:S114"/>
+    <mergeCell ref="I115:L115"/>
+    <mergeCell ref="M105:O105"/>
+    <mergeCell ref="P105:S105"/>
+    <mergeCell ref="I103:L103"/>
+    <mergeCell ref="M103:O103"/>
+    <mergeCell ref="P103:S103"/>
+    <mergeCell ref="I104:L104"/>
+    <mergeCell ref="M104:O104"/>
+    <mergeCell ref="M96:O96"/>
+    <mergeCell ref="P104:S104"/>
+    <mergeCell ref="I105:L105"/>
+    <mergeCell ref="I106:L106"/>
+    <mergeCell ref="M106:O106"/>
+    <mergeCell ref="M112:O112"/>
+    <mergeCell ref="P112:S112"/>
+    <mergeCell ref="I110:L110"/>
+    <mergeCell ref="F65:H65"/>
     <mergeCell ref="P65:S65"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="P68:S68"/>
     <mergeCell ref="I65:L65"/>
     <mergeCell ref="M65:O65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="M70:O70"/>
-    <mergeCell ref="P70:S70"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="P71:S71"/>
-    <mergeCell ref="I71:L71"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="P73:S73"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="P76:S76"/>
-    <mergeCell ref="I74:L74"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="P74:S74"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="M75:O75"/>
-    <mergeCell ref="P75:S75"/>
-    <mergeCell ref="I76:L76"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="P79:S79"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="M77:O77"/>
-    <mergeCell ref="P77:S77"/>
-    <mergeCell ref="I78:L78"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="P78:S78"/>
-    <mergeCell ref="I79:L79"/>
-    <mergeCell ref="P83:S83"/>
-    <mergeCell ref="I84:L84"/>
-    <mergeCell ref="M84:O84"/>
-    <mergeCell ref="P84:S84"/>
-    <mergeCell ref="I85:L85"/>
-    <mergeCell ref="M82:O82"/>
-    <mergeCell ref="P82:S82"/>
-    <mergeCell ref="I80:L80"/>
-    <mergeCell ref="M80:O80"/>
-    <mergeCell ref="P80:S80"/>
-    <mergeCell ref="I81:L81"/>
-    <mergeCell ref="M81:O81"/>
-    <mergeCell ref="P81:S81"/>
-    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="P66:S66"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="P67:S67"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="I108:L108"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:E86"/>
     <mergeCell ref="F81:H81"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="M91:O91"/>
-    <mergeCell ref="P91:S91"/>
-    <mergeCell ref="I89:L89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="I90:L90"/>
-    <mergeCell ref="M90:O90"/>
-    <mergeCell ref="P90:S90"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="P88:S88"/>
-    <mergeCell ref="I86:L86"/>
-    <mergeCell ref="M86:O86"/>
-    <mergeCell ref="P86:S86"/>
-    <mergeCell ref="I87:L87"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="P87:S87"/>
-    <mergeCell ref="I88:L88"/>
-    <mergeCell ref="M85:O85"/>
-    <mergeCell ref="P85:S85"/>
-    <mergeCell ref="I83:L83"/>
-    <mergeCell ref="M83:O83"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
@@ -26369,212 +26463,116 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="F80:H80"/>
     <mergeCell ref="C80:E80"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="P105:S105"/>
-    <mergeCell ref="I106:L106"/>
-    <mergeCell ref="I107:L107"/>
-    <mergeCell ref="M107:O107"/>
-    <mergeCell ref="M113:O113"/>
-    <mergeCell ref="P113:S113"/>
-    <mergeCell ref="I111:L111"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="P66:S66"/>
-    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="M90:O90"/>
+    <mergeCell ref="P90:S90"/>
+    <mergeCell ref="I88:L88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="I89:L89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="I90:L90"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="P87:S87"/>
+    <mergeCell ref="I85:L85"/>
+    <mergeCell ref="M85:O85"/>
+    <mergeCell ref="P85:S85"/>
+    <mergeCell ref="I86:L86"/>
+    <mergeCell ref="M86:O86"/>
+    <mergeCell ref="P86:S86"/>
+    <mergeCell ref="I87:L87"/>
+    <mergeCell ref="M84:O84"/>
+    <mergeCell ref="P84:S84"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="P82:S82"/>
+    <mergeCell ref="I83:L83"/>
+    <mergeCell ref="M83:O83"/>
+    <mergeCell ref="P83:S83"/>
+    <mergeCell ref="I84:L84"/>
+    <mergeCell ref="M81:O81"/>
+    <mergeCell ref="P81:S81"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="P79:S79"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="M80:O80"/>
+    <mergeCell ref="P80:S80"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="P78:S78"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="P76:S76"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="P77:S77"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="P75:S75"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="P73:S73"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="P74:S74"/>
+    <mergeCell ref="I75:L75"/>
     <mergeCell ref="I69:L69"/>
     <mergeCell ref="M69:O69"/>
     <mergeCell ref="P69:S69"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="I67:L67"/>
-    <mergeCell ref="M67:O67"/>
-    <mergeCell ref="P67:S67"/>
-    <mergeCell ref="M68:O68"/>
-    <mergeCell ref="P68:S68"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="I109:L109"/>
-    <mergeCell ref="M109:O109"/>
-    <mergeCell ref="P109:S109"/>
-    <mergeCell ref="I110:L110"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="M119:O119"/>
-    <mergeCell ref="P119:S119"/>
-    <mergeCell ref="I117:L117"/>
-    <mergeCell ref="M117:O117"/>
-    <mergeCell ref="P117:S117"/>
-    <mergeCell ref="I118:L118"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="P118:S118"/>
-    <mergeCell ref="I119:L119"/>
-    <mergeCell ref="M115:O115"/>
-    <mergeCell ref="P115:S115"/>
-    <mergeCell ref="I116:L116"/>
-    <mergeCell ref="M106:O106"/>
-    <mergeCell ref="P106:S106"/>
-    <mergeCell ref="I104:L104"/>
-    <mergeCell ref="M104:O104"/>
-    <mergeCell ref="P104:S104"/>
-    <mergeCell ref="I105:L105"/>
-    <mergeCell ref="M105:O105"/>
-    <mergeCell ref="M94:O94"/>
-    <mergeCell ref="P94:S94"/>
-    <mergeCell ref="I92:L92"/>
-    <mergeCell ref="M92:O92"/>
-    <mergeCell ref="P92:S92"/>
-    <mergeCell ref="I93:L93"/>
-    <mergeCell ref="M93:O93"/>
-    <mergeCell ref="P93:S93"/>
-    <mergeCell ref="I94:L94"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C124:E124"/>
-    <mergeCell ref="C125:E125"/>
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="C121:E121"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="M97:O97"/>
-    <mergeCell ref="P97:S97"/>
-    <mergeCell ref="I95:L95"/>
-    <mergeCell ref="M95:O95"/>
-    <mergeCell ref="P95:S95"/>
-    <mergeCell ref="I96:L96"/>
-    <mergeCell ref="M96:O96"/>
-    <mergeCell ref="P96:S96"/>
-    <mergeCell ref="I97:L97"/>
-    <mergeCell ref="M100:O100"/>
-    <mergeCell ref="P100:S100"/>
-    <mergeCell ref="I98:L98"/>
-    <mergeCell ref="M98:O98"/>
-    <mergeCell ref="P98:S98"/>
-    <mergeCell ref="I99:L99"/>
-    <mergeCell ref="M99:O99"/>
-    <mergeCell ref="P99:S99"/>
-    <mergeCell ref="I100:L100"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="F99:H99"/>
-    <mergeCell ref="F100:H100"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="F126:H126"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="F118:H118"/>
-    <mergeCell ref="F119:H119"/>
-    <mergeCell ref="F120:H120"/>
-    <mergeCell ref="F121:H121"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="F123:H123"/>
-    <mergeCell ref="F105:H105"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="F107:H107"/>
-    <mergeCell ref="F108:H108"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="F111:H111"/>
-    <mergeCell ref="F112:H112"/>
-    <mergeCell ref="F113:H113"/>
-    <mergeCell ref="F114:H114"/>
-    <mergeCell ref="F115:H115"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="F125:H125"/>
-    <mergeCell ref="M111:O111"/>
-    <mergeCell ref="P111:S111"/>
-    <mergeCell ref="I112:L112"/>
-    <mergeCell ref="M112:O112"/>
-    <mergeCell ref="P112:S112"/>
-    <mergeCell ref="I113:L113"/>
-    <mergeCell ref="I120:L120"/>
-    <mergeCell ref="M120:O120"/>
-    <mergeCell ref="P120:S120"/>
-    <mergeCell ref="M116:O116"/>
-    <mergeCell ref="P116:S116"/>
-    <mergeCell ref="I114:L114"/>
-    <mergeCell ref="M114:O114"/>
-    <mergeCell ref="P114:S114"/>
-    <mergeCell ref="I115:L115"/>
-    <mergeCell ref="M126:O126"/>
-    <mergeCell ref="P126:S126"/>
-    <mergeCell ref="I124:L124"/>
-    <mergeCell ref="M124:O124"/>
-    <mergeCell ref="P124:S124"/>
-    <mergeCell ref="I125:L125"/>
-    <mergeCell ref="M125:O125"/>
-    <mergeCell ref="P125:S125"/>
-    <mergeCell ref="I126:L126"/>
-    <mergeCell ref="M103:O103"/>
-    <mergeCell ref="P103:S103"/>
-    <mergeCell ref="I101:L101"/>
-    <mergeCell ref="M101:O101"/>
-    <mergeCell ref="P101:S101"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="P123:S123"/>
-    <mergeCell ref="I121:L121"/>
-    <mergeCell ref="M121:O121"/>
-    <mergeCell ref="P121:S121"/>
-    <mergeCell ref="I122:L122"/>
-    <mergeCell ref="M122:O122"/>
-    <mergeCell ref="P122:S122"/>
-    <mergeCell ref="I123:L123"/>
-    <mergeCell ref="I102:L102"/>
-    <mergeCell ref="M102:O102"/>
-    <mergeCell ref="P102:S102"/>
-    <mergeCell ref="I103:L103"/>
-    <mergeCell ref="P107:S107"/>
-    <mergeCell ref="M110:O110"/>
-    <mergeCell ref="P110:S110"/>
-    <mergeCell ref="I108:L108"/>
-    <mergeCell ref="M108:O108"/>
-    <mergeCell ref="P108:S108"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="P70:S70"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="I71:L71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="P64:S64"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="C13:H13"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:D4">
     <cfRule type="colorScale" priority="1">
@@ -26593,12 +26591,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26740,15 +26735,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE45D4B-B629-4110-ABAC-4B0F11E7BBFD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75874065-9FDF-4780-9B87-C1C24E93EFA3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d793dd02-5f71-4855-b8ed-d726909a186d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26772,11 +26772,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75874065-9FDF-4780-9B87-C1C24E93EFA3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE45D4B-B629-4110-ABAC-4B0F11E7BBFD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d793dd02-5f71-4855-b8ed-d726909a186d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>